--- a/Meetings/Add Session Registration Transaction/Main.rvl.xlsx
+++ b/Meetings/Add Session Registration Transaction/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="143">
   <si>
     <t>Flow</t>
   </si>
@@ -407,6 +407,45 @@
   <si>
     <t>GetColumnStartEnd2</t>
   </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\MeetingData.xlsx</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test adds a new main Meeting Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Value for g_testname must be defined to determine row in the spreadsheet for values and objects.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice with batch selected.</t>
+  </si>
+  <si>
+    <t>***Test adds a new Session Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice that contains the meeting registration with batch selected.</t>
+  </si>
+  <si>
+    <t>Loop through spreadsheet to find row with match on Test Name.</t>
+  </si>
+  <si>
+    <t>Test Name:</t>
+  </si>
+  <si>
+    <t>TUXr Main Registration</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4020">
+  <borders count="4037">
     <border>
       <left/>
       <right/>
@@ -4453,11 +4492,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4020">
+  <cellXfs count="4037">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -8478,6 +8534,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4017" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4018" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4019" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4020" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4021" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4022" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4023" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4024" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4025" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4026" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4027" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4028" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4029" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4030" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4031" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4032" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4033" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4034" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4035" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4036" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8487,7 +8560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H141"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -8633,7 +8706,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -8742,7 +8815,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -8876,820 +8949,826 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="201"/>
+      <c r="A30" s="4020"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="200" t="s">
+      <c r="A31" s="201"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4024"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4023"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4022"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4021"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="199" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="198" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="196"/>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="195"/>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="37">
-      <c r="A37" s="194"/>
+      <c r="A37" s="4036"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4035"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4034"/>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="198" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="197" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="196"/>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="195"/>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="194"/>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="193"/>
-      <c r="B38" t="s">
+    <row r="46">
+      <c r="A46" s="193"/>
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E46" t="s">
         <v>57</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F46" t="s">
         <v>42</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="192" t="s">
+    <row r="47">
+      <c r="A47" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="191" t="s">
+    <row r="48">
+      <c r="A48" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="190"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="189" t="s">
+    <row r="49">
+      <c r="A49" s="190"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="188" t="s">
+    <row r="51">
+      <c r="A51" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="187" t="s">
+    <row r="52">
+      <c r="A52" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="186" t="s">
+    <row r="53">
+      <c r="A53" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E53" t="s">
         <v>51</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F53" t="s">
         <v>36</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="185"/>
-      <c r="B46" t="s">
+    <row r="54">
+      <c r="A54" s="185"/>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="184"/>
-      <c r="B47" t="s">
+    <row r="55">
+      <c r="A55" s="184"/>
+      <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E55" t="s">
         <v>55</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F55" t="s">
         <v>42</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="183"/>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="182"/>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="181" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="180" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="179"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="178"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="177" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="176"/>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="56">
-      <c r="A56" s="175"/>
+      <c r="A56" s="183"/>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="174"/>
+      <c r="A57" s="182"/>
       <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="173"/>
+      <c r="A58" s="181" t="s">
+        <v>34</v>
+      </c>
       <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="179"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="178"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="177" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="176"/>
+      <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C63" t="s">
         <v>63</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D63" t="s">
         <v>64</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E63" t="s">
         <v>65</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F63" t="s">
         <v>13</v>
       </c>
-      <c r="G58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="172"/>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="171"/>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="170"/>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="169"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>71</v>
+      <c r="G63" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="167"/>
+      <c r="A64" s="175"/>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4015"/>
+      <c r="A65" s="174"/>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4016"/>
+      <c r="A66" s="173"/>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="164" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="172"/>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="163"/>
+      <c r="A68" s="171"/>
       <c r="B68" t="s">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4018"/>
+      <c r="A69" s="170"/>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="E69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="169"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="167"/>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4015"/>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
         <v>25</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4019"/>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>75</v>
-      </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="32"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="972" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="974"/>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" t="s">
-        <v>65</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="975"/>
+      <c r="A74" s="4016"/>
       <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="973"/>
+      <c r="A75" s="164" t="s">
+        <v>38</v>
+      </c>
       <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="971"/>
+      <c r="A76" s="163"/>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="970"/>
+      <c r="A77" s="4018"/>
       <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="969"/>
+      <c r="A78" s="4019"/>
       <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="968"/>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>109</v>
-      </c>
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="32"/>
     </row>
     <row r="80">
-      <c r="A80" s="967"/>
+      <c r="A80" s="972" t="s">
+        <v>38</v>
+      </c>
       <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="966"/>
+      <c r="A81" s="974"/>
       <c r="B81" t="s">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="965"/>
+      <c r="A82" s="975"/>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="E82" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34" t="s">
+      <c r="A83" s="973"/>
+      <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="38" t="s">
+      <c r="F83" t="s">
         <v>45</v>
       </c>
-      <c r="G83" s="39" t="s">
+      <c r="G83" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="40"/>
     </row>
     <row r="84">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42" t="s">
+      <c r="A84" s="971"/>
+      <c r="B84" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="970"/>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
         <v>72</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D85" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="45" t="s">
+      <c r="E85" t="s">
         <v>94</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F85" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H84" s="48"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50" t="s">
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="969"/>
+      <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="H85" s="56"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="57"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="64"/>
+      <c r="D86" t="s">
+        <v>99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1009" t="s">
-        <v>38</v>
-      </c>
+      <c r="A87" s="968"/>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" t="s">
+        <v>103</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1008"/>
+      <c r="A88" s="967"/>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1007"/>
+      <c r="A89" s="966"/>
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -9697,573 +9776,711 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1006"/>
+      <c r="A90" s="965"/>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="33"/>
+      <c r="B91" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H91" s="40"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="41"/>
+      <c r="B92" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1005"/>
-      <c r="B91" t="s">
+      <c r="D92" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="48"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="49"/>
+      <c r="B93" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93" s="56"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="57"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="64"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1009" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1008"/>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
         <v>63</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D96" t="s">
         <v>64</v>
-      </c>
-      <c r="E91" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1004"/>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1003"/>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1010"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1002"/>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D95" t="s">
-        <v>64</v>
-      </c>
-      <c r="E95" t="s">
-        <v>65</v>
-      </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1001"/>
-      <c r="B96" t="s">
-        <v>11</v>
       </c>
       <c r="E96" t="s">
         <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1000"/>
+      <c r="A97" s="1007"/>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1006"/>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1005"/>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
         <v>63</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>64</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>65</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F99" t="s">
         <v>13</v>
       </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="999"/>
-      <c r="B98" t="s">
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1004"/>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1003"/>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>100</v>
+      </c>
+      <c r="F101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1010"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1002"/>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1001"/>
+      <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E104" t="s">
         <v>65</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F104" t="s">
         <v>42</v>
       </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="998"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="997" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-      <c r="E100" t="s">
-        <v>123</v>
-      </c>
-      <c r="F100" t="s">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="G104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="996"/>
-      <c r="B101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>124</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-      <c r="G101" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="995"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="994" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="993" t="s">
-        <v>38</v>
-      </c>
-      <c r="B104" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="105">
-      <c r="A105" s="992"/>
+      <c r="A105" s="1000"/>
       <c r="B105" t="s">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="991"/>
+      <c r="A106" s="999"/>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F106" t="s">
         <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="990"/>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>63</v>
-      </c>
-      <c r="D107" t="s">
-        <v>64</v>
-      </c>
-      <c r="E107" t="s">
-        <v>65</v>
-      </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s">
-        <v>86</v>
-      </c>
+      <c r="A107" s="998"/>
     </row>
     <row r="108">
-      <c r="A108" s="989"/>
+      <c r="A108" s="997" t="s">
+        <v>48</v>
+      </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>84</v>
       </c>
       <c r="E108" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="988"/>
+      <c r="A109" s="996"/>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="987" t="s">
+      <c r="A110" s="995"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="994" t="s">
         <v>38</v>
       </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="986"/>
       <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" t="s">
-        <v>82</v>
-      </c>
-      <c r="E111" t="s">
-        <v>83</v>
-      </c>
-      <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="985"/>
+      <c r="A112" s="993" t="s">
+        <v>38</v>
+      </c>
       <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>88</v>
-      </c>
-      <c r="F112" t="s">
-        <v>42</v>
-      </c>
-      <c r="G112" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="984"/>
+      <c r="A113" s="992"/>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E113" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="983"/>
+      <c r="A114" s="991"/>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
       </c>
       <c r="G114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="990"/>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="989"/>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="988"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="987" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="986"/>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>82</v>
+      </c>
+      <c r="E119" t="s">
+        <v>83</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="985"/>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="982"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="981"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="980"/>
-      <c r="B117" t="s">
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="984"/>
+      <c r="B121" t="s">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" t="s">
+        <v>65</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="983"/>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>65</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="982"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="981"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="980"/>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
         <v>72</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D125" t="s">
         <v>90</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E125" t="s">
         <v>91</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F125" t="s">
         <v>42</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G125" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="979"/>
-      <c r="B118" t="s">
+    <row r="126">
+      <c r="A126" s="979"/>
+      <c r="B126" t="s">
         <v>11</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E126" t="s">
         <v>92</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F126" t="s">
         <v>42</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="978"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="977" t="s">
+    <row r="127">
+      <c r="A127" s="978"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="977" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="976"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="65"/>
-      <c r="B122" s="66" t="s">
+    <row r="129">
+      <c r="A129" s="976"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="65"/>
+      <c r="B130" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="67" t="s">
+      <c r="C130" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="68" t="s">
+      <c r="D130" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E122" s="69" t="s">
+      <c r="E130" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F130" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G122" s="71" t="s">
+      <c r="G130" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H122" s="72"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="73"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="80"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="81"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="84"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="87"/>
-      <c r="H124" s="88"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="89"/>
-      <c r="B125" s="90"/>
-      <c r="C125" s="91"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="95"/>
-      <c r="H125" s="96"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="97"/>
-      <c r="B126" s="98"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="100"/>
-      <c r="E126" s="101"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="104"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="105"/>
-      <c r="B127" s="106"/>
-      <c r="C127" s="107"/>
-      <c r="D127" s="108"/>
-      <c r="E127" s="109"/>
-      <c r="F127" s="110"/>
-      <c r="G127" s="111"/>
-      <c r="H127" s="112"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="113"/>
-      <c r="B128" s="114"/>
-      <c r="C128" s="115"/>
-      <c r="D128" s="116"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="118"/>
-      <c r="G128" s="119"/>
-      <c r="H128" s="120"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="121"/>
-      <c r="B129" s="122"/>
-      <c r="C129" s="123"/>
-      <c r="D129" s="124"/>
-      <c r="E129" s="125"/>
-      <c r="F129" s="126"/>
-      <c r="G129" s="127"/>
-      <c r="H129" s="128"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="129"/>
-      <c r="B130" s="130"/>
-      <c r="C130" s="131"/>
-      <c r="D130" s="132"/>
-      <c r="E130" s="133"/>
-      <c r="F130" s="134"/>
-      <c r="G130" s="135"/>
-      <c r="H130" s="136"/>
+      <c r="H130" s="72"/>
     </row>
     <row r="131">
-      <c r="A131" s="137"/>
-      <c r="B131" s="138"/>
-      <c r="C131" s="139"/>
-      <c r="D131" s="140"/>
-      <c r="E131" s="141"/>
-      <c r="F131" s="142"/>
-      <c r="G131" s="143"/>
-      <c r="H131" s="144"/>
+      <c r="A131" s="73"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="80"/>
     </row>
     <row r="132">
-      <c r="A132" s="145"/>
-      <c r="B132" s="146"/>
-      <c r="C132" s="147"/>
-      <c r="D132" s="148"/>
-      <c r="E132" s="149"/>
-      <c r="F132" s="150"/>
-      <c r="G132" s="151"/>
-      <c r="H132" s="152"/>
+      <c r="A132" s="81"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="86"/>
+      <c r="G132" s="87"/>
+      <c r="H132" s="88"/>
     </row>
     <row r="133">
-      <c r="A133" s="153"/>
-      <c r="B133" s="154"/>
-      <c r="C133" s="155"/>
-      <c r="D133" s="156"/>
-      <c r="E133" s="157"/>
-      <c r="F133" s="158"/>
-      <c r="G133" s="159"/>
-      <c r="H133" s="160"/>
+      <c r="A133" s="89"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="91"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="93"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="95"/>
+      <c r="H133" s="96"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="97"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="100"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="102"/>
+      <c r="G134" s="103"/>
+      <c r="H134" s="104"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="105"/>
+      <c r="B135" s="106"/>
+      <c r="C135" s="107"/>
+      <c r="D135" s="108"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="110"/>
+      <c r="G135" s="111"/>
+      <c r="H135" s="112"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="113"/>
+      <c r="B136" s="114"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="117"/>
+      <c r="F136" s="118"/>
+      <c r="G136" s="119"/>
+      <c r="H136" s="120"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="121"/>
+      <c r="B137" s="122"/>
+      <c r="C137" s="123"/>
+      <c r="D137" s="124"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="126"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="128"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="129"/>
+      <c r="B138" s="130"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="134"/>
+      <c r="G138" s="135"/>
+      <c r="H138" s="136"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="137"/>
+      <c r="B139" s="138"/>
+      <c r="C139" s="139"/>
+      <c r="D139" s="140"/>
+      <c r="E139" s="141"/>
+      <c r="F139" s="142"/>
+      <c r="G139" s="143"/>
+      <c r="H139" s="144"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="145"/>
+      <c r="B140" s="146"/>
+      <c r="C140" s="147"/>
+      <c r="D140" s="148"/>
+      <c r="E140" s="149"/>
+      <c r="F140" s="150"/>
+      <c r="G140" s="151"/>
+      <c r="H140" s="152"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="153"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="155"/>
+      <c r="D141" s="156"/>
+      <c r="E141" s="157"/>
+      <c r="F141" s="158"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Meetings/Add Session Registration Transaction/Main.rvl.xlsx
+++ b/Meetings/Add Session Registration Transaction/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="143">
   <si>
     <t>Flow</t>
   </si>
@@ -465,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4037">
+  <borders count="4039">
     <border>
       <left/>
       <right/>
@@ -4509,11 +4509,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4037">
+  <cellXfs count="4039">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -8551,6 +8553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4034" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4035" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4036" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4037" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4038" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8560,7 +8564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H142"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -8902,99 +8906,81 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="204"/>
+      <c r="A27" s="4038"/>
     </row>
     <row r="28">
-      <c r="A28" s="203" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="4037"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="202"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
+      <c r="A29" s="204"/>
     </row>
     <row r="30">
-      <c r="A30" s="4020"/>
+      <c r="A30" s="203" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="202"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="201"/>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4024"/>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
-      </c>
+      <c r="A32" s="201"/>
     </row>
     <row r="33">
-      <c r="A33" s="4023"/>
+      <c r="A33" s="4024"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -9011,11 +8997,11 @@
         <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4022"/>
+      <c r="A34" s="4023"/>
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -9032,43 +9018,43 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4022"/>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="4021"/>
-    </row>
     <row r="36">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="4021"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4036"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="38">
-      <c r="A38" s="4035"/>
+      <c r="A38" s="4036"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
@@ -9085,304 +9071,304 @@
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4034"/>
+      <c r="A39" s="4035"/>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
       </c>
       <c r="E39" t="s">
         <v>65</v>
       </c>
       <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4034"/>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
         <v>42</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="199" t="s">
+    <row r="41">
+      <c r="A41" s="199" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="198" t="s">
+    <row r="42">
+      <c r="A42" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="197" t="s">
+    <row r="43">
+      <c r="A43" s="197" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>51</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
         <v>21</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="196"/>
-      <c r="B43" t="s">
+    <row r="44">
+      <c r="A44" s="196"/>
+      <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="195"/>
-      <c r="B44" t="s">
+    <row r="45">
+      <c r="A45" s="195"/>
+      <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>55</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>42</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="194"/>
-      <c r="B45" t="s">
+    <row r="46">
+      <c r="A46" s="194"/>
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="193"/>
-      <c r="B46" t="s">
+    <row r="47">
+      <c r="A47" s="193"/>
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>57</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>42</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="192" t="s">
+    <row r="48">
+      <c r="A48" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="191" t="s">
+    <row r="49">
+      <c r="A49" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="190"/>
-    </row>
     <row r="50">
-      <c r="A50" s="189" t="s">
+      <c r="A50" s="190"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="189" t="s">
         <v>38</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="188" t="s">
+    <row r="52">
+      <c r="A52" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>19</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="187" t="s">
+    <row r="53">
+      <c r="A53" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="186" t="s">
+    <row r="54">
+      <c r="A54" s="186" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>51</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>36</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="185"/>
-      <c r="B54" t="s">
+    <row r="55">
+      <c r="A55" s="185"/>
+      <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="184"/>
-      <c r="B55" t="s">
+    <row r="56">
+      <c r="A56" s="184"/>
+      <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>55</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>42</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="183"/>
-      <c r="B56" t="s">
+    <row r="57">
+      <c r="A57" s="183"/>
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>36</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="182"/>
-      <c r="B57" t="s">
+    <row r="58">
+      <c r="A58" s="182"/>
+      <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>61</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>42</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="181" t="s">
+    <row r="59">
+      <c r="A59" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="180" t="s">
+    <row r="60">
+      <c r="A60" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="179"/>
-    </row>
     <row r="61">
-      <c r="A61" s="178"/>
+      <c r="A61" s="179"/>
     </row>
     <row r="62">
-      <c r="A62" s="177" t="s">
+      <c r="A62" s="178"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="176"/>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" t="s">
-        <v>65</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="64">
-      <c r="A64" s="175"/>
+      <c r="A64" s="176"/>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="174"/>
+      <c r="A65" s="175"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -9394,603 +9380,603 @@
         <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="173"/>
+      <c r="A66" s="174"/>
       <c r="B66" t="s">
         <v>3</v>
       </c>
       <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="173"/>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>64</v>
-      </c>
-      <c r="E66" t="s">
-        <v>65</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="172"/>
-      <c r="B67" t="s">
-        <v>11</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="171"/>
+      <c r="A68" s="172"/>
       <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="170"/>
+      <c r="A69" s="171"/>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
       </c>
       <c r="E69" t="s">
         <v>65</v>
       </c>
       <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="170"/>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" t="s">
         <v>42</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="169"/>
-    </row>
     <row r="71">
-      <c r="A71" s="168" t="s">
+      <c r="A71" s="169"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="167"/>
-      <c r="B72" t="s">
+    <row r="73">
+      <c r="A73" s="167"/>
+      <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>73</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>74</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="4015"/>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" t="s">
-        <v>25</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4016"/>
+      <c r="A74" s="4015"/>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4016"/>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="164" t="s">
+    <row r="76">
+      <c r="A76" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="163"/>
-      <c r="B76" t="s">
+    <row r="77">
+      <c r="A77" s="163"/>
+      <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>72</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>73</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>74</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="4018"/>
-      <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" t="s">
-        <v>25</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4019"/>
+      <c r="A78" s="4018"/>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4019"/>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="32"/>
-    </row>
     <row r="80">
-      <c r="A80" s="972" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="972" t="s">
         <v>38</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="974"/>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" t="s">
-        <v>65</v>
-      </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="82">
-      <c r="A82" s="975"/>
+      <c r="A82" s="974"/>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="973"/>
+      <c r="A83" s="975"/>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="971"/>
+      <c r="A84" s="973"/>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="970"/>
+      <c r="A85" s="971"/>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="969"/>
+      <c r="A86" s="970"/>
       <c r="B86" t="s">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="968"/>
+      <c r="A87" s="969"/>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="967"/>
+      <c r="A88" s="968"/>
       <c r="B88" t="s">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="E88" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="966"/>
+      <c r="A89" s="967"/>
       <c r="B89" t="s">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="965"/>
+      <c r="A90" s="966"/>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="965"/>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>118</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="33"/>
-      <c r="B91" s="34" t="s">
+    <row r="92">
+      <c r="A92" s="33"/>
+      <c r="B92" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C92" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="D92" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E92" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="38" t="s">
+      <c r="F92" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G91" s="39" t="s">
+      <c r="G92" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="40"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="41"/>
-      <c r="B92" s="42" t="s">
+      <c r="H92" s="40"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="41"/>
+      <c r="B93" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C93" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="D92" s="44" t="s">
+      <c r="D93" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E93" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F93" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="47" t="s">
+      <c r="G93" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="H92" s="48"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="49"/>
-      <c r="B93" s="50" t="s">
+      <c r="H93" s="48"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="49"/>
+      <c r="B94" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C94" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D94" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="53" t="s">
+      <c r="E94" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F94" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G94" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="H93" s="56"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="57"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="64"/>
+      <c r="H94" s="56"/>
     </row>
     <row r="95">
-      <c r="A95" s="1009" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="64"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1009" t="s">
         <v>38</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1008"/>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" t="s">
-        <v>64</v>
-      </c>
-      <c r="E96" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="97">
-      <c r="A97" s="1007"/>
+      <c r="A97" s="1008"/>
       <c r="B97" t="s">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1006"/>
+      <c r="A98" s="1007"/>
       <c r="B98" t="s">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1005"/>
+      <c r="A99" s="1006"/>
       <c r="B99" t="s">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D99" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1004"/>
+      <c r="A100" s="1005"/>
       <c r="B100" t="s">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1003"/>
+      <c r="A101" s="1004"/>
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -9998,489 +9984,510 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1003"/>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
         <v>99</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>100</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>28</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1010"/>
-    </row>
     <row r="103">
-      <c r="A103" s="1002"/>
-      <c r="B103" t="s">
+      <c r="A103" s="1010"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1002"/>
+      <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>63</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>64</v>
-      </c>
-      <c r="E103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1001"/>
-      <c r="B104" t="s">
-        <v>11</v>
       </c>
       <c r="E104" t="s">
         <v>65</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1000"/>
+      <c r="A105" s="1001"/>
       <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
         <v>65</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="999"/>
+      <c r="A106" s="1000"/>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
       </c>
       <c r="E106" t="s">
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="998"/>
+      <c r="A107" s="999"/>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>65</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="997" t="s">
+      <c r="A108" s="998"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="997" t="s">
         <v>48</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>84</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>123</v>
-      </c>
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="996"/>
-      <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>124</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
       </c>
       <c r="G109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="996"/>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="995"/>
-    </row>
     <row r="111">
-      <c r="A111" s="994" t="s">
+      <c r="A111" s="995"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="994" t="s">
         <v>38</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="993" t="s">
+    <row r="113">
+      <c r="A113" s="993" t="s">
         <v>38</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="992"/>
-      <c r="B113" t="s">
+    <row r="114">
+      <c r="A114" s="992"/>
+      <c r="B114" t="s">
         <v>3</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>36</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>82</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>83</v>
-      </c>
-      <c r="F113" t="s">
-        <v>42</v>
-      </c>
-      <c r="G113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="991"/>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
-        <v>85</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
       </c>
       <c r="G114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="991"/>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>85</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="990"/>
-      <c r="B115" t="s">
+    <row r="116">
+      <c r="A116" s="990"/>
+      <c r="B116" t="s">
         <v>3</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>63</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>64</v>
-      </c>
-      <c r="E115" t="s">
-        <v>65</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="989"/>
-      <c r="B116" t="s">
-        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>65</v>
       </c>
       <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="989"/>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" t="s">
         <v>42</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="988"/>
-    </row>
     <row r="118">
-      <c r="A118" s="987" t="s">
+      <c r="A118" s="988"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="987" t="s">
         <v>38</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="986"/>
-      <c r="B119" t="s">
+    <row r="120">
+      <c r="A120" s="986"/>
+      <c r="B120" t="s">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>21</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>82</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>83</v>
-      </c>
-      <c r="F119" t="s">
-        <v>42</v>
-      </c>
-      <c r="G119" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="985"/>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>88</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
       </c>
       <c r="G120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="985"/>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s">
+        <v>88</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="984"/>
-      <c r="B121" t="s">
+    <row r="122">
+      <c r="A122" s="984"/>
+      <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>63</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>64</v>
-      </c>
-      <c r="E121" t="s">
-        <v>65</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="983"/>
-      <c r="B122" t="s">
-        <v>11</v>
       </c>
       <c r="E122" t="s">
         <v>65</v>
       </c>
       <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="983"/>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>65</v>
+      </c>
+      <c r="F123" t="s">
         <v>42</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G123" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="982"/>
-    </row>
     <row r="124">
-      <c r="A124" s="981"/>
+      <c r="A124" s="982"/>
     </row>
     <row r="125">
-      <c r="A125" s="980"/>
-      <c r="B125" t="s">
+      <c r="A125" s="981"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="980"/>
+      <c r="B126" t="s">
         <v>3</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>72</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>90</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>91</v>
-      </c>
-      <c r="F125" t="s">
-        <v>42</v>
-      </c>
-      <c r="G125" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="979"/>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>92</v>
       </c>
       <c r="F126" t="s">
         <v>42</v>
       </c>
       <c r="G126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="979"/>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+      <c r="G127" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="978"/>
-    </row>
     <row r="128">
-      <c r="A128" s="977" t="s">
+      <c r="A128" s="978"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="977" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="976"/>
-    </row>
     <row r="130">
-      <c r="A130" s="65"/>
-      <c r="B130" s="66" t="s">
+      <c r="A130" s="976"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="65"/>
+      <c r="B131" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="67" t="s">
+      <c r="C131" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="68" t="s">
+      <c r="D131" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="69" t="s">
+      <c r="E131" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="F130" s="70" t="s">
+      <c r="F131" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G130" s="71" t="s">
+      <c r="G131" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H130" s="72"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="73"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="79"/>
-      <c r="H131" s="80"/>
+      <c r="H131" s="72"/>
     </row>
     <row r="132">
-      <c r="A132" s="81"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="84"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="87"/>
-      <c r="H132" s="88"/>
+      <c r="A132" s="73"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="79"/>
+      <c r="H132" s="80"/>
     </row>
     <row r="133">
-      <c r="A133" s="89"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="93"/>
-      <c r="F133" s="94"/>
-      <c r="G133" s="95"/>
-      <c r="H133" s="96"/>
+      <c r="A133" s="81"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="87"/>
+      <c r="H133" s="88"/>
     </row>
     <row r="134">
-      <c r="A134" s="97"/>
-      <c r="B134" s="98"/>
-      <c r="C134" s="99"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="102"/>
-      <c r="G134" s="103"/>
-      <c r="H134" s="104"/>
+      <c r="A134" s="89"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="91"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="93"/>
+      <c r="F134" s="94"/>
+      <c r="G134" s="95"/>
+      <c r="H134" s="96"/>
     </row>
     <row r="135">
-      <c r="A135" s="105"/>
-      <c r="B135" s="106"/>
-      <c r="C135" s="107"/>
-      <c r="D135" s="108"/>
-      <c r="E135" s="109"/>
-      <c r="F135" s="110"/>
-      <c r="G135" s="111"/>
-      <c r="H135" s="112"/>
+      <c r="A135" s="97"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="99"/>
+      <c r="D135" s="100"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="102"/>
+      <c r="G135" s="103"/>
+      <c r="H135" s="104"/>
     </row>
     <row r="136">
-      <c r="A136" s="113"/>
-      <c r="B136" s="114"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="116"/>
-      <c r="E136" s="117"/>
-      <c r="F136" s="118"/>
-      <c r="G136" s="119"/>
-      <c r="H136" s="120"/>
+      <c r="A136" s="105"/>
+      <c r="B136" s="106"/>
+      <c r="C136" s="107"/>
+      <c r="D136" s="108"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="110"/>
+      <c r="G136" s="111"/>
+      <c r="H136" s="112"/>
     </row>
     <row r="137">
-      <c r="A137" s="121"/>
-      <c r="B137" s="122"/>
-      <c r="C137" s="123"/>
-      <c r="D137" s="124"/>
-      <c r="E137" s="125"/>
-      <c r="F137" s="126"/>
-      <c r="G137" s="127"/>
-      <c r="H137" s="128"/>
+      <c r="A137" s="113"/>
+      <c r="B137" s="114"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="118"/>
+      <c r="G137" s="119"/>
+      <c r="H137" s="120"/>
     </row>
     <row r="138">
-      <c r="A138" s="129"/>
-      <c r="B138" s="130"/>
-      <c r="C138" s="131"/>
-      <c r="D138" s="132"/>
-      <c r="E138" s="133"/>
-      <c r="F138" s="134"/>
-      <c r="G138" s="135"/>
-      <c r="H138" s="136"/>
+      <c r="A138" s="121"/>
+      <c r="B138" s="122"/>
+      <c r="C138" s="123"/>
+      <c r="D138" s="124"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="126"/>
+      <c r="G138" s="127"/>
+      <c r="H138" s="128"/>
     </row>
     <row r="139">
-      <c r="A139" s="137"/>
-      <c r="B139" s="138"/>
-      <c r="C139" s="139"/>
-      <c r="D139" s="140"/>
-      <c r="E139" s="141"/>
-      <c r="F139" s="142"/>
-      <c r="G139" s="143"/>
-      <c r="H139" s="144"/>
+      <c r="A139" s="129"/>
+      <c r="B139" s="130"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="133"/>
+      <c r="F139" s="134"/>
+      <c r="G139" s="135"/>
+      <c r="H139" s="136"/>
     </row>
     <row r="140">
-      <c r="A140" s="145"/>
-      <c r="B140" s="146"/>
-      <c r="C140" s="147"/>
-      <c r="D140" s="148"/>
-      <c r="E140" s="149"/>
-      <c r="F140" s="150"/>
-      <c r="G140" s="151"/>
-      <c r="H140" s="152"/>
+      <c r="A140" s="137"/>
+      <c r="B140" s="138"/>
+      <c r="C140" s="139"/>
+      <c r="D140" s="140"/>
+      <c r="E140" s="141"/>
+      <c r="F140" s="142"/>
+      <c r="G140" s="143"/>
+      <c r="H140" s="144"/>
     </row>
     <row r="141">
-      <c r="A141" s="153"/>
-      <c r="B141" s="154"/>
-      <c r="C141" s="155"/>
-      <c r="D141" s="156"/>
-      <c r="E141" s="157"/>
-      <c r="F141" s="158"/>
-      <c r="G141" s="159"/>
-      <c r="H141" s="160"/>
+      <c r="A141" s="145"/>
+      <c r="B141" s="146"/>
+      <c r="C141" s="147"/>
+      <c r="D141" s="148"/>
+      <c r="E141" s="149"/>
+      <c r="F141" s="150"/>
+      <c r="G141" s="151"/>
+      <c r="H141" s="152"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="153"/>
+      <c r="B142" s="154"/>
+      <c r="C142" s="155"/>
+      <c r="D142" s="156"/>
+      <c r="E142" s="157"/>
+      <c r="F142" s="158"/>
+      <c r="G142" s="159"/>
+      <c r="H142" s="160"/>
     </row>
   </sheetData>
 </worksheet>
